--- a/九月销售汇总及提成/9月份提成表.xlsx
+++ b/九月销售汇总及提成/9月份提成表.xlsx
@@ -274,10 +274,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>门店销售金额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>丁三伙/金莹</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -298,11 +294,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>戴宏明</t>
+  </si>
+  <si>
+    <t>门店销售金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>提成总额</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>戴宏明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -315,7 +315,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,16 +387,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="24">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,6 +571,29 @@
         </stop>
       </gradientFill>
     </fill>
+    <fill>
+      <gradientFill degree="90">
+        <stop position="0">
+          <color rgb="FFFFFF00"/>
+        </stop>
+        <stop position="0.5">
+          <color rgb="FFFFC000"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFFF00"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color rgb="FFFFFF00"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF92D050"/>
+        </stop>
+      </gradientFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -724,9 +739,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -810,17 +822,20 @@
     <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="5" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="5" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="5" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="5" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="5" fillId="22" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="5" fillId="23" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -875,6 +890,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFA8F7A"/>
+      <color rgb="FFF86A4E"/>
       <color rgb="FFCCCCFF"/>
       <color rgb="FFFE7C72"/>
       <color rgb="FF6699FF"/>
@@ -1175,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1199,7 +1216,7 @@
     <col min="18" max="18" width="11.25" customWidth="1"/>
     <col min="19" max="19" width="13" customWidth="1"/>
     <col min="20" max="20" width="11" customWidth="1"/>
-    <col min="21" max="21" width="21.25" customWidth="1"/>
+    <col min="21" max="21" width="12.875" customWidth="1"/>
     <col min="22" max="22" width="13.875" style="1" customWidth="1"/>
     <col min="24" max="24" width="14.625" customWidth="1"/>
     <col min="25" max="25" width="10.5" bestFit="1" customWidth="1"/>
@@ -1232,2608 +1249,2608 @@
       <c r="V1" s="47"/>
     </row>
     <row r="2" spans="1:24" s="3" customFormat="1" ht="37.5" customHeight="1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="49"/>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="I2" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O2" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="P2" s="8" t="s">
+      <c r="O2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="P2" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="U2" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="V2" s="8" t="s">
+      <c r="U2" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A3" s="11">
+      <c r="A3" s="10">
         <v>1</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>101</v>
       </c>
-      <c r="D3" s="19">
-        <v>0</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19">
-        <v>0</v>
-      </c>
-      <c r="H3" s="19">
-        <v>0</v>
-      </c>
-      <c r="I3" s="20">
+      <c r="D3" s="18">
+        <v>0</v>
+      </c>
+      <c r="E3" s="18">
+        <v>0</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="19">
         <f t="shared" ref="I3:I40" si="0">D3*20+E3*40+F3*60+G3*100+H3*300</f>
         <v>0</v>
       </c>
-      <c r="J3" s="22">
-        <v>0</v>
-      </c>
-      <c r="K3" s="22">
-        <v>0</v>
-      </c>
-      <c r="L3" s="22">
-        <v>0</v>
-      </c>
-      <c r="M3" s="22">
-        <v>0</v>
-      </c>
-      <c r="N3" s="22">
-        <v>0</v>
-      </c>
-      <c r="O3" s="23">
+      <c r="J3" s="21">
+        <v>0</v>
+      </c>
+      <c r="K3" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <v>0</v>
+      </c>
+      <c r="N3" s="21">
+        <v>0</v>
+      </c>
+      <c r="O3" s="22">
         <f t="shared" ref="O3" si="1">J3*20+K3*40+L3*60+M3*100+N3*300</f>
         <v>0</v>
       </c>
-      <c r="P3" s="25">
+      <c r="P3" s="24">
         <f>SUM(I3,O3)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="28">
+      <c r="Q3" s="27">
         <f>(O3*0.3)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="28">
+      <c r="R3" s="27">
         <f>(D3*20+E3*40+F3*60+G3*100+H3*300)*0.15</f>
         <v>0</v>
       </c>
-      <c r="S3" s="28">
+      <c r="S3" s="27">
         <f>(D3*20+E3*40+F3*60+G3*100+H3*300)*0.15</f>
         <v>0</v>
       </c>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="32"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="31"/>
     </row>
     <row r="4" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="10">
         <v>2</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="19">
-        <v>0</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19">
-        <v>0</v>
-      </c>
-      <c r="I4" s="20">
+      <c r="D4" s="18">
+        <v>0</v>
+      </c>
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J4" s="22">
-        <v>0</v>
-      </c>
-      <c r="K4" s="22">
-        <v>0</v>
-      </c>
-      <c r="L4" s="22">
-        <v>0</v>
-      </c>
-      <c r="M4" s="22">
-        <v>0</v>
-      </c>
-      <c r="N4" s="22">
-        <v>0</v>
-      </c>
-      <c r="O4" s="23">
+      <c r="J4" s="21">
+        <v>0</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0</v>
+      </c>
+      <c r="L4" s="21">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>0</v>
+      </c>
+      <c r="N4" s="21">
+        <v>0</v>
+      </c>
+      <c r="O4" s="22">
         <f t="shared" ref="O4:O40" si="2">J4*20+K4*40+L4*60+M4*100+N4*300</f>
         <v>0</v>
       </c>
-      <c r="P4" s="25">
+      <c r="P4" s="24">
         <f t="shared" ref="P4:P40" si="3">SUM(I4,O4)</f>
         <v>0</v>
       </c>
-      <c r="Q4" s="28">
+      <c r="Q4" s="27">
         <f t="shared" ref="Q4:Q40" si="4">(O4*0.3)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="27">
         <f t="shared" ref="R4:R40" si="5">(D4*20+E4*40+F4*60+G4*100+H4*300)*0.15</f>
         <v>0</v>
       </c>
-      <c r="S4" s="28">
+      <c r="S4" s="27">
         <f t="shared" ref="S4:S40" si="6">(D4*20+E4*40+F4*60+G4*100+H4*300)*0.15</f>
         <v>0</v>
       </c>
-      <c r="T4" s="30"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="33"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="32"/>
     </row>
     <row r="5" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
       <c r="B5" s="51"/>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="18">
         <v>1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>1</v>
       </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19">
-        <v>0</v>
-      </c>
-      <c r="H5" s="19">
-        <v>0</v>
-      </c>
-      <c r="I5" s="24">
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="23">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="J5" s="22">
-        <v>0</v>
-      </c>
-      <c r="K5" s="22">
-        <v>0</v>
-      </c>
-      <c r="L5" s="22">
-        <v>0</v>
-      </c>
-      <c r="M5" s="22">
-        <v>0</v>
-      </c>
-      <c r="N5" s="22">
-        <v>0</v>
-      </c>
-      <c r="O5" s="23">
+      <c r="J5" s="21">
+        <v>0</v>
+      </c>
+      <c r="K5" s="21">
+        <v>0</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <v>0</v>
+      </c>
+      <c r="N5" s="21">
+        <v>0</v>
+      </c>
+      <c r="O5" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P5" s="25">
+      <c r="P5" s="24">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="Q5" s="28">
+      <c r="Q5" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R5" s="28">
+      <c r="R5" s="27">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="S5" s="28">
+      <c r="S5" s="27">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="33"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="32"/>
     </row>
     <row r="6" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="10">
         <v>4</v>
       </c>
       <c r="B6" s="51"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="19">
-        <v>0</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="19">
-        <v>0</v>
-      </c>
-      <c r="I6" s="20">
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="22">
-        <v>0</v>
-      </c>
-      <c r="K6" s="22">
-        <v>0</v>
-      </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="22">
-        <v>0</v>
-      </c>
-      <c r="N6" s="22">
-        <v>0</v>
-      </c>
-      <c r="O6" s="23">
+      <c r="J6" s="21">
+        <v>0</v>
+      </c>
+      <c r="K6" s="21">
+        <v>0</v>
+      </c>
+      <c r="L6" s="21">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <v>0</v>
+      </c>
+      <c r="N6" s="21">
+        <v>0</v>
+      </c>
+      <c r="O6" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P6" s="25">
+      <c r="P6" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q6" s="28">
+      <c r="Q6" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R6" s="28">
+      <c r="R6" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S6" s="28">
+      <c r="S6" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T6" s="30"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="15"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="32"/>
+      <c r="W6" s="14"/>
       <c r="X6" s="3" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="10">
         <v>5</v>
       </c>
       <c r="B7" s="51"/>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="19">
-        <v>0</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20">
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0</v>
+      </c>
+      <c r="I7" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="22">
-        <v>0</v>
-      </c>
-      <c r="K7" s="22">
-        <v>0</v>
-      </c>
-      <c r="L7" s="22">
-        <v>0</v>
-      </c>
-      <c r="M7" s="22">
-        <v>0</v>
-      </c>
-      <c r="N7" s="22">
-        <v>0</v>
-      </c>
-      <c r="O7" s="23">
+      <c r="J7" s="21">
+        <v>0</v>
+      </c>
+      <c r="K7" s="21">
+        <v>0</v>
+      </c>
+      <c r="L7" s="21">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <v>0</v>
+      </c>
+      <c r="N7" s="21">
+        <v>0</v>
+      </c>
+      <c r="O7" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P7" s="25">
+      <c r="P7" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q7" s="28">
+      <c r="Q7" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R7" s="28">
+      <c r="R7" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S7" s="28">
+      <c r="S7" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="16"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="15"/>
       <c r="X7" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="10">
         <v>6</v>
       </c>
       <c r="B8" s="51"/>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="19">
-        <v>0</v>
-      </c>
-      <c r="E8" s="19">
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
         <v>1</v>
       </c>
-      <c r="F8" s="19">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19">
-        <v>0</v>
-      </c>
-      <c r="H8" s="19">
-        <v>0</v>
-      </c>
-      <c r="I8" s="24">
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>1</v>
       </c>
-      <c r="K8" s="22">
-        <v>0</v>
-      </c>
-      <c r="L8" s="22">
-        <v>0</v>
-      </c>
-      <c r="M8" s="22">
-        <v>0</v>
-      </c>
-      <c r="N8" s="22">
-        <v>0</v>
-      </c>
-      <c r="O8" s="24">
+      <c r="K8" s="21">
+        <v>0</v>
+      </c>
+      <c r="L8" s="21">
+        <v>0</v>
+      </c>
+      <c r="M8" s="21">
+        <v>0</v>
+      </c>
+      <c r="N8" s="21">
+        <v>0</v>
+      </c>
+      <c r="O8" s="23">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="P8" s="25">
+      <c r="P8" s="24">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="Q8" s="28">
+      <c r="Q8" s="27">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="R8" s="28">
+      <c r="R8" s="27">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="S8" s="28">
+      <c r="S8" s="27">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="W8" s="17"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="W8" s="16"/>
       <c r="X8" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="10">
         <v>7</v>
       </c>
       <c r="B9" s="51"/>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <v>2</v>
       </c>
-      <c r="K9" s="22">
-        <v>0</v>
-      </c>
-      <c r="L9" s="22">
-        <v>0</v>
-      </c>
-      <c r="M9" s="22">
-        <v>0</v>
-      </c>
-      <c r="N9" s="22">
-        <v>0</v>
-      </c>
-      <c r="O9" s="24">
+      <c r="K9" s="21">
+        <v>0</v>
+      </c>
+      <c r="L9" s="21">
+        <v>0</v>
+      </c>
+      <c r="M9" s="21">
+        <v>0</v>
+      </c>
+      <c r="N9" s="21">
+        <v>0</v>
+      </c>
+      <c r="O9" s="23">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="P9" s="25">
+      <c r="P9" s="24">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="Q9" s="28">
+      <c r="Q9" s="27">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S9" s="28">
+      <c r="S9" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="33" t="s">
-        <v>71</v>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="32" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="10">
         <v>8</v>
       </c>
       <c r="B10" s="51"/>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="18">
         <v>1</v>
       </c>
-      <c r="E10" s="19">
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <v>0</v>
-      </c>
-      <c r="H10" s="19">
-        <v>0</v>
-      </c>
-      <c r="I10" s="24">
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+      <c r="I10" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J10" s="22">
-        <v>0</v>
-      </c>
-      <c r="K10" s="22">
-        <v>0</v>
-      </c>
-      <c r="L10" s="22">
-        <v>0</v>
-      </c>
-      <c r="M10" s="22">
-        <v>0</v>
-      </c>
-      <c r="N10" s="22">
-        <v>0</v>
-      </c>
-      <c r="O10" s="23">
+      <c r="J10" s="21">
+        <v>0</v>
+      </c>
+      <c r="K10" s="21">
+        <v>0</v>
+      </c>
+      <c r="L10" s="21">
+        <v>0</v>
+      </c>
+      <c r="M10" s="21">
+        <v>0</v>
+      </c>
+      <c r="N10" s="21">
+        <v>0</v>
+      </c>
+      <c r="O10" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P10" s="25">
+      <c r="P10" s="24">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Q10" s="28">
+      <c r="Q10" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R10" s="28">
+      <c r="R10" s="27">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="S10" s="28">
+      <c r="S10" s="27">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="33" t="s">
-        <v>65</v>
+      <c r="T10" s="28"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="32" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A11" s="11">
+      <c r="A11" s="10">
         <v>9</v>
       </c>
       <c r="B11" s="51"/>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="19">
-        <v>0</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0</v>
-      </c>
-      <c r="I11" s="20">
+      <c r="D11" s="18">
+        <v>0</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J11" s="22">
-        <v>0</v>
-      </c>
-      <c r="K11" s="22">
-        <v>0</v>
-      </c>
-      <c r="L11" s="22">
-        <v>0</v>
-      </c>
-      <c r="M11" s="22">
-        <v>0</v>
-      </c>
-      <c r="N11" s="22">
-        <v>0</v>
-      </c>
-      <c r="O11" s="23">
+      <c r="J11" s="21">
+        <v>0</v>
+      </c>
+      <c r="K11" s="21">
+        <v>0</v>
+      </c>
+      <c r="L11" s="21">
+        <v>0</v>
+      </c>
+      <c r="M11" s="21">
+        <v>0</v>
+      </c>
+      <c r="N11" s="21">
+        <v>0</v>
+      </c>
+      <c r="O11" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P11" s="25">
+      <c r="P11" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="28">
+      <c r="Q11" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R11" s="28">
+      <c r="R11" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S11" s="28">
+      <c r="S11" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="29"/>
-      <c r="V11" s="33"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="32"/>
     </row>
     <row r="12" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="10">
         <v>10</v>
       </c>
       <c r="B12" s="51"/>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
-        <v>0</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19">
-        <v>0</v>
-      </c>
-      <c r="H12" s="19">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="22">
-        <v>0</v>
-      </c>
-      <c r="K12" s="22">
-        <v>0</v>
-      </c>
-      <c r="L12" s="22">
-        <v>0</v>
-      </c>
-      <c r="M12" s="22">
-        <v>0</v>
-      </c>
-      <c r="N12" s="22">
-        <v>0</v>
-      </c>
-      <c r="O12" s="23">
+      <c r="J12" s="21">
+        <v>0</v>
+      </c>
+      <c r="K12" s="21">
+        <v>0</v>
+      </c>
+      <c r="L12" s="21">
+        <v>0</v>
+      </c>
+      <c r="M12" s="21">
+        <v>0</v>
+      </c>
+      <c r="N12" s="21">
+        <v>0</v>
+      </c>
+      <c r="O12" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P12" s="25">
+      <c r="P12" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q12" s="28">
+      <c r="Q12" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R12" s="28">
+      <c r="R12" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S12" s="28">
+      <c r="S12" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T12" s="30"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="33"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="32"/>
     </row>
     <row r="13" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="10">
         <v>11</v>
       </c>
       <c r="B13" s="51"/>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="19">
-        <v>0</v>
-      </c>
-      <c r="E13" s="19">
-        <v>0</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19">
-        <v>0</v>
-      </c>
-      <c r="H13" s="19">
-        <v>0</v>
-      </c>
-      <c r="I13" s="20">
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18">
+        <v>0</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J13" s="22">
-        <v>0</v>
-      </c>
-      <c r="K13" s="22">
-        <v>0</v>
-      </c>
-      <c r="L13" s="22">
-        <v>0</v>
-      </c>
-      <c r="M13" s="22">
-        <v>0</v>
-      </c>
-      <c r="N13" s="22">
-        <v>0</v>
-      </c>
-      <c r="O13" s="23">
+      <c r="J13" s="21">
+        <v>0</v>
+      </c>
+      <c r="K13" s="21">
+        <v>0</v>
+      </c>
+      <c r="L13" s="21">
+        <v>0</v>
+      </c>
+      <c r="M13" s="21">
+        <v>0</v>
+      </c>
+      <c r="N13" s="21">
+        <v>0</v>
+      </c>
+      <c r="O13" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P13" s="25">
+      <c r="P13" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q13" s="28">
+      <c r="Q13" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R13" s="28">
+      <c r="R13" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S13" s="28">
+      <c r="S13" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T13" s="30"/>
-      <c r="U13" s="29"/>
-      <c r="V13" s="33"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="32"/>
     </row>
     <row r="14" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A14" s="11">
+      <c r="A14" s="10">
         <v>12</v>
       </c>
       <c r="B14" s="51"/>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="19">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19">
-        <v>0</v>
-      </c>
-      <c r="I14" s="20">
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="18">
+        <v>0</v>
+      </c>
+      <c r="I14" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J14" s="22">
-        <v>0</v>
-      </c>
-      <c r="K14" s="22">
-        <v>0</v>
-      </c>
-      <c r="L14" s="22">
-        <v>0</v>
-      </c>
-      <c r="M14" s="22">
-        <v>0</v>
-      </c>
-      <c r="N14" s="22">
-        <v>0</v>
-      </c>
-      <c r="O14" s="23">
+      <c r="J14" s="21">
+        <v>0</v>
+      </c>
+      <c r="K14" s="21">
+        <v>0</v>
+      </c>
+      <c r="L14" s="21">
+        <v>0</v>
+      </c>
+      <c r="M14" s="21">
+        <v>0</v>
+      </c>
+      <c r="N14" s="21">
+        <v>0</v>
+      </c>
+      <c r="O14" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P14" s="25">
+      <c r="P14" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q14" s="28">
+      <c r="Q14" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R14" s="28">
+      <c r="R14" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S14" s="28">
+      <c r="S14" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T14" s="30"/>
-      <c r="U14" s="29"/>
-      <c r="V14" s="33"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="32"/>
     </row>
     <row r="15" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A15" s="11">
+      <c r="A15" s="10">
         <v>13</v>
       </c>
       <c r="B15" s="51"/>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="19">
-        <v>0</v>
-      </c>
-      <c r="E15" s="19">
-        <v>0</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0</v>
-      </c>
-      <c r="G15" s="19">
-        <v>0</v>
-      </c>
-      <c r="H15" s="19">
-        <v>0</v>
-      </c>
-      <c r="I15" s="20">
+      <c r="D15" s="18">
+        <v>0</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="22">
-        <v>0</v>
-      </c>
-      <c r="K15" s="22">
-        <v>0</v>
-      </c>
-      <c r="L15" s="22">
-        <v>0</v>
-      </c>
-      <c r="M15" s="22">
-        <v>0</v>
-      </c>
-      <c r="N15" s="22">
-        <v>0</v>
-      </c>
-      <c r="O15" s="23">
+      <c r="J15" s="21">
+        <v>0</v>
+      </c>
+      <c r="K15" s="21">
+        <v>0</v>
+      </c>
+      <c r="L15" s="21">
+        <v>0</v>
+      </c>
+      <c r="M15" s="21">
+        <v>0</v>
+      </c>
+      <c r="N15" s="21">
+        <v>0</v>
+      </c>
+      <c r="O15" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q15" s="28">
+      <c r="Q15" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R15" s="28">
+      <c r="R15" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S15" s="28">
+      <c r="S15" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="29"/>
-      <c r="V15" s="33"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="32"/>
     </row>
     <row r="16" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A16" s="11">
+      <c r="A16" s="10">
         <v>14</v>
       </c>
       <c r="B16" s="51"/>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="18">
         <v>6</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="18">
         <v>1</v>
       </c>
-      <c r="F16" s="19">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="24">
+      <c r="F16" s="18">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="23">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="J16" s="22">
-        <v>0</v>
-      </c>
-      <c r="K16" s="22">
-        <v>0</v>
-      </c>
-      <c r="L16" s="22">
-        <v>0</v>
-      </c>
-      <c r="M16" s="22">
-        <v>0</v>
-      </c>
-      <c r="N16" s="22">
-        <v>0</v>
-      </c>
-      <c r="O16" s="23">
+      <c r="J16" s="21">
+        <v>0</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0</v>
+      </c>
+      <c r="L16" s="21">
+        <v>0</v>
+      </c>
+      <c r="M16" s="21">
+        <v>0</v>
+      </c>
+      <c r="N16" s="21">
+        <v>0</v>
+      </c>
+      <c r="O16" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P16" s="25">
+      <c r="P16" s="24">
         <f t="shared" si="3"/>
         <v>160</v>
       </c>
-      <c r="Q16" s="28">
+      <c r="Q16" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R16" s="28">
+      <c r="R16" s="27">
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="S16" s="28">
+      <c r="S16" s="27">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="T16" s="30"/>
-      <c r="U16" s="29"/>
-      <c r="V16" s="33"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="32"/>
     </row>
     <row r="17" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A17" s="11">
+      <c r="A17" s="10">
         <v>15</v>
       </c>
       <c r="B17" s="51"/>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="18">
         <v>1</v>
       </c>
-      <c r="E17" s="19">
-        <v>0</v>
-      </c>
-      <c r="F17" s="19">
-        <v>0</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0</v>
-      </c>
-      <c r="H17" s="19">
-        <v>0</v>
-      </c>
-      <c r="I17" s="24">
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J17" s="22">
-        <v>0</v>
-      </c>
-      <c r="K17" s="22">
-        <v>0</v>
-      </c>
-      <c r="L17" s="22">
-        <v>0</v>
-      </c>
-      <c r="M17" s="22">
-        <v>0</v>
-      </c>
-      <c r="N17" s="22">
-        <v>0</v>
-      </c>
-      <c r="O17" s="23">
+      <c r="J17" s="21">
+        <v>0</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+      <c r="L17" s="21">
+        <v>0</v>
+      </c>
+      <c r="M17" s="21">
+        <v>0</v>
+      </c>
+      <c r="N17" s="21">
+        <v>0</v>
+      </c>
+      <c r="O17" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="25">
+      <c r="P17" s="24">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Q17" s="28">
+      <c r="Q17" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R17" s="28">
+      <c r="R17" s="27">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="S17" s="28">
+      <c r="S17" s="27">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="29"/>
-      <c r="V17" s="33"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="28"/>
+      <c r="V17" s="32"/>
     </row>
     <row r="18" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A18" s="11">
+      <c r="A18" s="10">
         <v>16</v>
       </c>
       <c r="B18" s="51"/>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>1</v>
       </c>
-      <c r="E18" s="19">
-        <v>0</v>
-      </c>
-      <c r="F18" s="19">
-        <v>0</v>
-      </c>
-      <c r="G18" s="19">
-        <v>0</v>
-      </c>
-      <c r="H18" s="19">
-        <v>0</v>
-      </c>
-      <c r="I18" s="24">
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J18" s="22">
-        <v>0</v>
-      </c>
-      <c r="K18" s="22">
-        <v>0</v>
-      </c>
-      <c r="L18" s="22">
-        <v>0</v>
-      </c>
-      <c r="M18" s="22">
-        <v>0</v>
-      </c>
-      <c r="N18" s="22">
-        <v>0</v>
-      </c>
-      <c r="O18" s="23">
+      <c r="J18" s="21">
+        <v>0</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+      <c r="L18" s="21">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
+        <v>0</v>
+      </c>
+      <c r="N18" s="21">
+        <v>0</v>
+      </c>
+      <c r="O18" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P18" s="25">
+      <c r="P18" s="24">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Q18" s="28">
+      <c r="Q18" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R18" s="28">
+      <c r="R18" s="27">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="S18" s="28">
+      <c r="S18" s="27">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="T18" s="30"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="33"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="32"/>
     </row>
     <row r="19" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A19" s="11">
+      <c r="A19" s="10">
         <v>17</v>
       </c>
       <c r="B19" s="51"/>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="19">
-        <v>0</v>
-      </c>
-      <c r="E19" s="19">
-        <v>0</v>
-      </c>
-      <c r="F19" s="19">
-        <v>0</v>
-      </c>
-      <c r="G19" s="19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="20">
+      <c r="D19" s="18">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="18">
+        <v>0</v>
+      </c>
+      <c r="I19" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J19" s="22">
-        <v>0</v>
-      </c>
-      <c r="K19" s="22">
-        <v>0</v>
-      </c>
-      <c r="L19" s="22">
-        <v>0</v>
-      </c>
-      <c r="M19" s="22">
-        <v>0</v>
-      </c>
-      <c r="N19" s="22">
-        <v>0</v>
-      </c>
-      <c r="O19" s="23">
+      <c r="J19" s="21">
+        <v>0</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0</v>
+      </c>
+      <c r="L19" s="21">
+        <v>0</v>
+      </c>
+      <c r="M19" s="21">
+        <v>0</v>
+      </c>
+      <c r="N19" s="21">
+        <v>0</v>
+      </c>
+      <c r="O19" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P19" s="25">
+      <c r="P19" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="28">
+      <c r="Q19" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S19" s="28">
+      <c r="S19" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T19" s="30"/>
-      <c r="U19" s="29"/>
-      <c r="V19" s="33"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="28"/>
+      <c r="V19" s="32"/>
     </row>
     <row r="20" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A20" s="11">
+      <c r="A20" s="10">
         <v>18</v>
       </c>
       <c r="B20" s="51"/>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="19">
-        <v>0</v>
-      </c>
-      <c r="E20" s="19">
-        <v>0</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0</v>
-      </c>
-      <c r="G20" s="19">
-        <v>0</v>
-      </c>
-      <c r="H20" s="19">
-        <v>0</v>
-      </c>
-      <c r="I20" s="24">
+      <c r="D20" s="18">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+      <c r="I20" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <v>1</v>
       </c>
-      <c r="K20" s="22">
-        <v>0</v>
-      </c>
-      <c r="L20" s="22">
-        <v>0</v>
-      </c>
-      <c r="M20" s="22">
-        <v>0</v>
-      </c>
-      <c r="N20" s="22">
-        <v>0</v>
-      </c>
-      <c r="O20" s="24">
+      <c r="K20" s="21">
+        <v>0</v>
+      </c>
+      <c r="L20" s="21">
+        <v>0</v>
+      </c>
+      <c r="M20" s="21">
+        <v>0</v>
+      </c>
+      <c r="N20" s="21">
+        <v>0</v>
+      </c>
+      <c r="O20" s="23">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="P20" s="25">
+      <c r="P20" s="24">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Q20" s="28">
+      <c r="Q20" s="27">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="R20" s="28">
+      <c r="R20" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S20" s="28">
+      <c r="S20" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T20" s="30"/>
-      <c r="U20" s="29"/>
-      <c r="V20" s="33"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="32"/>
     </row>
     <row r="21" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A21" s="11">
+      <c r="A21" s="10">
         <v>19</v>
       </c>
       <c r="B21" s="51"/>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="19">
-        <v>0</v>
-      </c>
-      <c r="E21" s="19">
-        <v>0</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0</v>
-      </c>
-      <c r="G21" s="19">
-        <v>0</v>
-      </c>
-      <c r="H21" s="19">
-        <v>0</v>
-      </c>
-      <c r="I21" s="20">
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <v>1</v>
       </c>
-      <c r="K21" s="22">
-        <v>0</v>
-      </c>
-      <c r="L21" s="22">
-        <v>0</v>
-      </c>
-      <c r="M21" s="22">
-        <v>0</v>
-      </c>
-      <c r="N21" s="22">
-        <v>0</v>
-      </c>
-      <c r="O21" s="24">
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="23">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="P21" s="25">
+      <c r="P21" s="24">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Q21" s="28">
+      <c r="Q21" s="27">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="R21" s="28">
+      <c r="R21" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S21" s="28">
+      <c r="S21" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T21" s="30"/>
-      <c r="U21" s="29"/>
-      <c r="V21" s="33" t="s">
-        <v>67</v>
+      <c r="T21" s="29"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="32" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A22" s="11">
+      <c r="A22" s="10">
         <v>20</v>
       </c>
       <c r="B22" s="51"/>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="19">
-        <v>0</v>
-      </c>
-      <c r="E22" s="19">
-        <v>0</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0</v>
-      </c>
-      <c r="G22" s="19">
-        <v>0</v>
-      </c>
-      <c r="H22" s="19">
-        <v>0</v>
-      </c>
-      <c r="I22" s="20">
+      <c r="D22" s="18">
+        <v>0</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="22">
-        <v>0</v>
-      </c>
-      <c r="K22" s="22">
-        <v>0</v>
-      </c>
-      <c r="L22" s="22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="22">
-        <v>0</v>
-      </c>
-      <c r="N22" s="22">
-        <v>0</v>
-      </c>
-      <c r="O22" s="23">
+      <c r="J22" s="21">
+        <v>0</v>
+      </c>
+      <c r="K22" s="21">
+        <v>0</v>
+      </c>
+      <c r="L22" s="21">
+        <v>0</v>
+      </c>
+      <c r="M22" s="21">
+        <v>0</v>
+      </c>
+      <c r="N22" s="21">
+        <v>0</v>
+      </c>
+      <c r="O22" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="25">
+      <c r="P22" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q22" s="28">
+      <c r="Q22" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R22" s="28">
+      <c r="R22" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S22" s="28">
+      <c r="S22" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T22" s="30"/>
-      <c r="U22" s="29"/>
-      <c r="V22" s="33"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="28"/>
+      <c r="V22" s="32"/>
     </row>
     <row r="23" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A23" s="11">
+      <c r="A23" s="10">
         <v>21</v>
       </c>
       <c r="B23" s="51"/>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="19">
-        <v>0</v>
-      </c>
-      <c r="E23" s="19">
-        <v>0</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0</v>
-      </c>
-      <c r="G23" s="19">
-        <v>0</v>
-      </c>
-      <c r="H23" s="19">
-        <v>0</v>
-      </c>
-      <c r="I23" s="20">
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="22">
-        <v>0</v>
-      </c>
-      <c r="K23" s="22">
-        <v>0</v>
-      </c>
-      <c r="L23" s="22">
-        <v>0</v>
-      </c>
-      <c r="M23" s="22">
-        <v>0</v>
-      </c>
-      <c r="N23" s="22">
-        <v>0</v>
-      </c>
-      <c r="O23" s="23">
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
+        <v>0</v>
+      </c>
+      <c r="L23" s="21">
+        <v>0</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="21">
+        <v>0</v>
+      </c>
+      <c r="O23" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P23" s="25">
+      <c r="P23" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q23" s="28">
+      <c r="Q23" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R23" s="28">
+      <c r="R23" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S23" s="28">
+      <c r="S23" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T23" s="30"/>
-      <c r="U23" s="29"/>
-      <c r="V23" s="33"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="32"/>
     </row>
     <row r="24" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A24" s="11">
+      <c r="A24" s="10">
         <v>22</v>
       </c>
       <c r="B24" s="51"/>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="18">
         <v>1</v>
       </c>
-      <c r="E24" s="19">
-        <v>0</v>
-      </c>
-      <c r="F24" s="19">
-        <v>0</v>
-      </c>
-      <c r="G24" s="19">
-        <v>0</v>
-      </c>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="24">
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+      <c r="I24" s="23">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="J24" s="22">
-        <v>0</v>
-      </c>
-      <c r="K24" s="22">
-        <v>0</v>
-      </c>
-      <c r="L24" s="22">
-        <v>0</v>
-      </c>
-      <c r="M24" s="22">
-        <v>0</v>
-      </c>
-      <c r="N24" s="22">
-        <v>0</v>
-      </c>
-      <c r="O24" s="23">
+      <c r="J24" s="21">
+        <v>0</v>
+      </c>
+      <c r="K24" s="21">
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
+        <v>0</v>
+      </c>
+      <c r="N24" s="21">
+        <v>0</v>
+      </c>
+      <c r="O24" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P24" s="25">
+      <c r="P24" s="24">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R24" s="28">
+      <c r="R24" s="27">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="S24" s="28">
+      <c r="S24" s="27">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="T24" s="30"/>
-      <c r="U24" s="29"/>
-      <c r="V24" s="33"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="32"/>
     </row>
     <row r="25" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A25" s="11">
+      <c r="A25" s="10">
         <v>23</v>
       </c>
       <c r="B25" s="51"/>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="19">
-        <v>0</v>
-      </c>
-      <c r="E25" s="19">
-        <v>0</v>
-      </c>
-      <c r="F25" s="19">
-        <v>0</v>
-      </c>
-      <c r="G25" s="19">
-        <v>0</v>
-      </c>
-      <c r="H25" s="19">
-        <v>0</v>
-      </c>
-      <c r="I25" s="20">
+      <c r="D25" s="18">
+        <v>0</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+      <c r="I25" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="22">
-        <v>0</v>
-      </c>
-      <c r="K25" s="22">
-        <v>0</v>
-      </c>
-      <c r="L25" s="22">
-        <v>0</v>
-      </c>
-      <c r="M25" s="22">
-        <v>0</v>
-      </c>
-      <c r="N25" s="22">
-        <v>0</v>
-      </c>
-      <c r="O25" s="23">
+      <c r="J25" s="21">
+        <v>0</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+      <c r="L25" s="21">
+        <v>0</v>
+      </c>
+      <c r="M25" s="21">
+        <v>0</v>
+      </c>
+      <c r="N25" s="21">
+        <v>0</v>
+      </c>
+      <c r="O25" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" s="25">
+      <c r="P25" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R25" s="28">
+      <c r="R25" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S25" s="28">
+      <c r="S25" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T25" s="30"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="33"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="28"/>
+      <c r="V25" s="32"/>
     </row>
     <row r="26" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A26" s="11">
+      <c r="A26" s="10">
         <v>24</v>
       </c>
       <c r="B26" s="51"/>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="19">
-        <v>0</v>
-      </c>
-      <c r="E26" s="19">
-        <v>0</v>
-      </c>
-      <c r="F26" s="19">
-        <v>0</v>
-      </c>
-      <c r="G26" s="19">
-        <v>0</v>
-      </c>
-      <c r="H26" s="19">
-        <v>0</v>
-      </c>
-      <c r="I26" s="20">
+      <c r="D26" s="18">
+        <v>0</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0</v>
+      </c>
+      <c r="F26" s="18">
+        <v>0</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="22">
-        <v>0</v>
-      </c>
-      <c r="K26" s="22">
-        <v>0</v>
-      </c>
-      <c r="L26" s="22">
-        <v>0</v>
-      </c>
-      <c r="M26" s="22">
-        <v>0</v>
-      </c>
-      <c r="N26" s="22">
-        <v>35</v>
-      </c>
-      <c r="O26" s="24">
+      <c r="J26" s="21">
+        <v>0</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0</v>
+      </c>
+      <c r="L26" s="21">
+        <v>0</v>
+      </c>
+      <c r="M26" s="21">
+        <v>0</v>
+      </c>
+      <c r="N26" s="21">
+        <v>36</v>
+      </c>
+      <c r="O26" s="23">
         <f t="shared" si="2"/>
-        <v>10500</v>
-      </c>
-      <c r="P26" s="25">
+        <v>10800</v>
+      </c>
+      <c r="P26" s="24">
         <f t="shared" si="3"/>
-        <v>10500</v>
-      </c>
-      <c r="Q26" s="28">
+        <v>10800</v>
+      </c>
+      <c r="Q26" s="27">
         <f t="shared" si="4"/>
-        <v>3150</v>
-      </c>
-      <c r="R26" s="28">
+        <v>3240</v>
+      </c>
+      <c r="R26" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S26" s="28">
+      <c r="S26" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T26" s="30"/>
-      <c r="U26" s="29"/>
-      <c r="V26" s="33"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="28"/>
+      <c r="V26" s="32"/>
     </row>
     <row r="27" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A27" s="11">
+      <c r="A27" s="10">
         <v>25</v>
       </c>
       <c r="B27" s="51"/>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="19">
-        <v>0</v>
-      </c>
-      <c r="E27" s="19">
-        <v>0</v>
-      </c>
-      <c r="F27" s="19">
-        <v>0</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0</v>
-      </c>
-      <c r="H27" s="19">
-        <v>0</v>
-      </c>
-      <c r="I27" s="20">
+      <c r="D27" s="18">
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="22">
-        <v>0</v>
-      </c>
-      <c r="K27" s="22">
-        <v>0</v>
-      </c>
-      <c r="L27" s="22">
-        <v>0</v>
-      </c>
-      <c r="M27" s="22">
-        <v>0</v>
-      </c>
-      <c r="N27" s="22">
-        <v>0</v>
-      </c>
-      <c r="O27" s="23">
+      <c r="J27" s="21">
+        <v>0</v>
+      </c>
+      <c r="K27" s="21">
+        <v>0</v>
+      </c>
+      <c r="L27" s="21">
+        <v>0</v>
+      </c>
+      <c r="M27" s="21">
+        <v>0</v>
+      </c>
+      <c r="N27" s="21">
+        <v>0</v>
+      </c>
+      <c r="O27" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" s="25">
+      <c r="P27" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q27" s="28">
+      <c r="Q27" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R27" s="28">
+      <c r="R27" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S27" s="28">
+      <c r="S27" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T27" s="30"/>
-      <c r="U27" s="29"/>
-      <c r="V27" s="33"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="28"/>
+      <c r="V27" s="32"/>
     </row>
     <row r="28" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A28" s="11">
+      <c r="A28" s="10">
         <v>26</v>
       </c>
       <c r="B28" s="51"/>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="19">
-        <v>0</v>
-      </c>
-      <c r="E28" s="19">
-        <v>0</v>
-      </c>
-      <c r="F28" s="19">
-        <v>0</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0</v>
-      </c>
-      <c r="H28" s="19">
-        <v>0</v>
-      </c>
-      <c r="I28" s="20">
+      <c r="D28" s="18">
+        <v>0</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="22">
-        <v>0</v>
-      </c>
-      <c r="K28" s="22">
-        <v>0</v>
-      </c>
-      <c r="L28" s="22">
-        <v>0</v>
-      </c>
-      <c r="M28" s="22">
-        <v>0</v>
-      </c>
-      <c r="N28" s="22">
-        <v>0</v>
-      </c>
-      <c r="O28" s="23">
+      <c r="J28" s="21">
+        <v>0</v>
+      </c>
+      <c r="K28" s="21">
+        <v>0</v>
+      </c>
+      <c r="L28" s="21">
+        <v>0</v>
+      </c>
+      <c r="M28" s="21">
+        <v>0</v>
+      </c>
+      <c r="N28" s="21">
+        <v>0</v>
+      </c>
+      <c r="O28" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="25">
+      <c r="P28" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q28" s="28">
+      <c r="Q28" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R28" s="28">
+      <c r="R28" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S28" s="28">
+      <c r="S28" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T28" s="30"/>
-      <c r="U28" s="29"/>
-      <c r="V28" s="33"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="32"/>
     </row>
     <row r="29" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A29" s="11">
+      <c r="A29" s="10">
         <v>27</v>
       </c>
       <c r="B29" s="51"/>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="19">
-        <v>0</v>
-      </c>
-      <c r="E29" s="19">
-        <v>0</v>
-      </c>
-      <c r="F29" s="19">
-        <v>0</v>
-      </c>
-      <c r="G29" s="19">
-        <v>0</v>
-      </c>
-      <c r="H29" s="19">
-        <v>0</v>
-      </c>
-      <c r="I29" s="20">
+      <c r="D29" s="18">
+        <v>0</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="18">
+        <v>0</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="22">
-        <v>0</v>
-      </c>
-      <c r="K29" s="22">
-        <v>0</v>
-      </c>
-      <c r="L29" s="22">
-        <v>0</v>
-      </c>
-      <c r="M29" s="22">
-        <v>0</v>
-      </c>
-      <c r="N29" s="22">
-        <v>0</v>
-      </c>
-      <c r="O29" s="23">
+      <c r="J29" s="21">
+        <v>0</v>
+      </c>
+      <c r="K29" s="21">
+        <v>0</v>
+      </c>
+      <c r="L29" s="21">
+        <v>0</v>
+      </c>
+      <c r="M29" s="21">
+        <v>0</v>
+      </c>
+      <c r="N29" s="21">
+        <v>0</v>
+      </c>
+      <c r="O29" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P29" s="25">
+      <c r="P29" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q29" s="28">
+      <c r="Q29" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R29" s="28">
+      <c r="R29" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S29" s="28">
+      <c r="S29" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T29" s="30"/>
-      <c r="U29" s="29"/>
-      <c r="V29" s="33"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="32"/>
     </row>
     <row r="30" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A30" s="11">
+      <c r="A30" s="10">
         <v>28</v>
       </c>
       <c r="B30" s="51"/>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D30" s="18">
         <v>2</v>
       </c>
-      <c r="E30" s="19">
-        <v>0</v>
-      </c>
-      <c r="F30" s="19">
-        <v>0</v>
-      </c>
-      <c r="G30" s="19">
-        <v>0</v>
-      </c>
-      <c r="H30" s="19">
-        <v>0</v>
-      </c>
-      <c r="I30" s="24">
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="18">
+        <v>0</v>
+      </c>
+      <c r="I30" s="23">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="J30" s="22">
-        <v>0</v>
-      </c>
-      <c r="K30" s="22">
-        <v>0</v>
-      </c>
-      <c r="L30" s="22">
-        <v>0</v>
-      </c>
-      <c r="M30" s="22">
-        <v>0</v>
-      </c>
-      <c r="N30" s="22">
-        <v>0</v>
-      </c>
-      <c r="O30" s="23">
+      <c r="J30" s="21">
+        <v>0</v>
+      </c>
+      <c r="K30" s="21">
+        <v>0</v>
+      </c>
+      <c r="L30" s="21">
+        <v>0</v>
+      </c>
+      <c r="M30" s="21">
+        <v>0</v>
+      </c>
+      <c r="N30" s="21">
+        <v>0</v>
+      </c>
+      <c r="O30" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P30" s="25">
+      <c r="P30" s="24">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="Q30" s="28">
+      <c r="Q30" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R30" s="28">
+      <c r="R30" s="27">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="S30" s="28">
+      <c r="S30" s="27">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="T30" s="30"/>
-      <c r="U30" s="29"/>
-      <c r="V30" s="33"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="32"/>
     </row>
     <row r="31" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A31" s="11">
+      <c r="A31" s="10">
         <v>29</v>
       </c>
       <c r="B31" s="51"/>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D31" s="19">
-        <v>0</v>
-      </c>
-      <c r="E31" s="19">
-        <v>0</v>
-      </c>
-      <c r="F31" s="19">
-        <v>0</v>
-      </c>
-      <c r="G31" s="19">
-        <v>0</v>
-      </c>
-      <c r="H31" s="19">
-        <v>0</v>
-      </c>
-      <c r="I31" s="20">
+      <c r="D31" s="18">
+        <v>0</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="18">
+        <v>0</v>
+      </c>
+      <c r="G31" s="18">
+        <v>0</v>
+      </c>
+      <c r="H31" s="18">
+        <v>0</v>
+      </c>
+      <c r="I31" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="22">
-        <v>0</v>
-      </c>
-      <c r="K31" s="22">
-        <v>0</v>
-      </c>
-      <c r="L31" s="22">
-        <v>0</v>
-      </c>
-      <c r="M31" s="22">
-        <v>0</v>
-      </c>
-      <c r="N31" s="22">
-        <v>0</v>
-      </c>
-      <c r="O31" s="23">
+      <c r="J31" s="21">
+        <v>0</v>
+      </c>
+      <c r="K31" s="21">
+        <v>0</v>
+      </c>
+      <c r="L31" s="21">
+        <v>0</v>
+      </c>
+      <c r="M31" s="21">
+        <v>0</v>
+      </c>
+      <c r="N31" s="21">
+        <v>0</v>
+      </c>
+      <c r="O31" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P31" s="25">
+      <c r="P31" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R31" s="28">
+      <c r="R31" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S31" s="28">
+      <c r="S31" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T31" s="30"/>
-      <c r="U31" s="29"/>
-      <c r="V31" s="33"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="32"/>
     </row>
     <row r="32" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A32" s="11">
+      <c r="A32" s="10">
         <v>30</v>
       </c>
       <c r="B32" s="51"/>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="19">
-        <v>0</v>
-      </c>
-      <c r="E32" s="19">
-        <v>0</v>
-      </c>
-      <c r="F32" s="19">
-        <v>0</v>
-      </c>
-      <c r="G32" s="19">
-        <v>0</v>
-      </c>
-      <c r="H32" s="19">
-        <v>0</v>
-      </c>
-      <c r="I32" s="20">
+      <c r="D32" s="18">
+        <v>0</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
+      <c r="F32" s="18">
+        <v>0</v>
+      </c>
+      <c r="G32" s="18">
+        <v>0</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+      <c r="I32" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="22">
-        <v>0</v>
-      </c>
-      <c r="K32" s="22">
-        <v>0</v>
-      </c>
-      <c r="L32" s="22">
-        <v>0</v>
-      </c>
-      <c r="M32" s="22">
-        <v>0</v>
-      </c>
-      <c r="N32" s="22">
-        <v>0</v>
-      </c>
-      <c r="O32" s="23">
+      <c r="J32" s="21">
+        <v>0</v>
+      </c>
+      <c r="K32" s="21">
+        <v>0</v>
+      </c>
+      <c r="L32" s="21">
+        <v>0</v>
+      </c>
+      <c r="M32" s="21">
+        <v>0</v>
+      </c>
+      <c r="N32" s="21">
+        <v>0</v>
+      </c>
+      <c r="O32" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P32" s="25">
+      <c r="P32" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q32" s="28">
+      <c r="Q32" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R32" s="28">
+      <c r="R32" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S32" s="28">
+      <c r="S32" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T32" s="30"/>
-      <c r="U32" s="29"/>
-      <c r="V32" s="33"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="28"/>
+      <c r="V32" s="32"/>
     </row>
     <row r="33" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A33" s="11">
+      <c r="A33" s="10">
         <v>31</v>
       </c>
       <c r="B33" s="51"/>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D33" s="19">
-        <v>0</v>
-      </c>
-      <c r="E33" s="19">
-        <v>0</v>
-      </c>
-      <c r="F33" s="19">
-        <v>0</v>
-      </c>
-      <c r="G33" s="19">
-        <v>0</v>
-      </c>
-      <c r="H33" s="19">
-        <v>0</v>
-      </c>
-      <c r="I33" s="20">
+      <c r="D33" s="18">
+        <v>0</v>
+      </c>
+      <c r="E33" s="18">
+        <v>0</v>
+      </c>
+      <c r="F33" s="18">
+        <v>0</v>
+      </c>
+      <c r="G33" s="18">
+        <v>0</v>
+      </c>
+      <c r="H33" s="18">
+        <v>0</v>
+      </c>
+      <c r="I33" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="22">
-        <v>0</v>
-      </c>
-      <c r="K33" s="22">
-        <v>0</v>
-      </c>
-      <c r="L33" s="22">
-        <v>0</v>
-      </c>
-      <c r="M33" s="22">
-        <v>0</v>
-      </c>
-      <c r="N33" s="22">
-        <v>0</v>
-      </c>
-      <c r="O33" s="23">
+      <c r="J33" s="21">
+        <v>0</v>
+      </c>
+      <c r="K33" s="21">
+        <v>0</v>
+      </c>
+      <c r="L33" s="21">
+        <v>0</v>
+      </c>
+      <c r="M33" s="21">
+        <v>0</v>
+      </c>
+      <c r="N33" s="21">
+        <v>0</v>
+      </c>
+      <c r="O33" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P33" s="25">
+      <c r="P33" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q33" s="28">
+      <c r="Q33" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R33" s="28">
+      <c r="R33" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S33" s="28">
+      <c r="S33" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T33" s="30"/>
-      <c r="U33" s="29"/>
-      <c r="V33" s="33"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="28"/>
+      <c r="V33" s="32"/>
     </row>
     <row r="34" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A34" s="11">
+      <c r="A34" s="10">
         <v>32</v>
       </c>
       <c r="B34" s="51"/>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="19">
-        <v>0</v>
-      </c>
-      <c r="E34" s="19">
-        <v>0</v>
-      </c>
-      <c r="F34" s="19">
-        <v>0</v>
-      </c>
-      <c r="G34" s="19">
-        <v>0</v>
-      </c>
-      <c r="H34" s="19">
-        <v>0</v>
-      </c>
-      <c r="I34" s="20">
+      <c r="D34" s="18">
+        <v>0</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="22">
-        <v>0</v>
-      </c>
-      <c r="K34" s="22">
-        <v>0</v>
-      </c>
-      <c r="L34" s="22">
-        <v>0</v>
-      </c>
-      <c r="M34" s="22">
-        <v>0</v>
-      </c>
-      <c r="N34" s="22">
-        <v>0</v>
-      </c>
-      <c r="O34" s="23">
+      <c r="J34" s="21">
+        <v>0</v>
+      </c>
+      <c r="K34" s="21">
+        <v>0</v>
+      </c>
+      <c r="L34" s="21">
+        <v>0</v>
+      </c>
+      <c r="M34" s="21">
+        <v>0</v>
+      </c>
+      <c r="N34" s="21">
+        <v>0</v>
+      </c>
+      <c r="O34" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P34" s="25">
+      <c r="P34" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q34" s="28">
+      <c r="Q34" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R34" s="28">
+      <c r="R34" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S34" s="28">
+      <c r="S34" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T34" s="30"/>
-      <c r="U34" s="29"/>
-      <c r="V34" s="33"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="28"/>
+      <c r="V34" s="32"/>
     </row>
     <row r="35" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A35" s="11">
+      <c r="A35" s="10">
         <v>33</v>
       </c>
       <c r="B35" s="51"/>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D35" s="19">
-        <v>0</v>
-      </c>
-      <c r="E35" s="19">
-        <v>0</v>
-      </c>
-      <c r="F35" s="19">
-        <v>0</v>
-      </c>
-      <c r="G35" s="19">
-        <v>0</v>
-      </c>
-      <c r="H35" s="19">
-        <v>0</v>
-      </c>
-      <c r="I35" s="20">
+      <c r="D35" s="18">
+        <v>0</v>
+      </c>
+      <c r="E35" s="18">
+        <v>0</v>
+      </c>
+      <c r="F35" s="18">
+        <v>0</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0</v>
+      </c>
+      <c r="I35" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="22">
-        <v>0</v>
-      </c>
-      <c r="K35" s="22">
-        <v>0</v>
-      </c>
-      <c r="L35" s="22">
-        <v>0</v>
-      </c>
-      <c r="M35" s="22">
-        <v>0</v>
-      </c>
-      <c r="N35" s="22">
-        <v>0</v>
-      </c>
-      <c r="O35" s="23">
+      <c r="J35" s="21">
+        <v>0</v>
+      </c>
+      <c r="K35" s="21">
+        <v>0</v>
+      </c>
+      <c r="L35" s="21">
+        <v>0</v>
+      </c>
+      <c r="M35" s="21">
+        <v>0</v>
+      </c>
+      <c r="N35" s="21">
+        <v>0</v>
+      </c>
+      <c r="O35" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P35" s="25">
+      <c r="P35" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q35" s="28">
+      <c r="Q35" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R35" s="28">
+      <c r="R35" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S35" s="28">
+      <c r="S35" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T35" s="30"/>
-      <c r="U35" s="29"/>
-      <c r="V35" s="33"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="28"/>
+      <c r="V35" s="32"/>
     </row>
     <row r="36" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A36" s="11">
+      <c r="A36" s="10">
         <v>34</v>
       </c>
       <c r="B36" s="51"/>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="19">
-        <v>0</v>
-      </c>
-      <c r="E36" s="19">
-        <v>0</v>
-      </c>
-      <c r="F36" s="19">
-        <v>0</v>
-      </c>
-      <c r="G36" s="19">
-        <v>0</v>
-      </c>
-      <c r="H36" s="19">
-        <v>0</v>
-      </c>
-      <c r="I36" s="20">
+      <c r="D36" s="18">
+        <v>0</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0</v>
+      </c>
+      <c r="F36" s="18">
+        <v>0</v>
+      </c>
+      <c r="G36" s="18">
+        <v>0</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
+      <c r="I36" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="22">
-        <v>0</v>
-      </c>
-      <c r="K36" s="22">
-        <v>0</v>
-      </c>
-      <c r="L36" s="22">
-        <v>0</v>
-      </c>
-      <c r="M36" s="22">
-        <v>0</v>
-      </c>
-      <c r="N36" s="22">
-        <v>0</v>
-      </c>
-      <c r="O36" s="23">
+      <c r="J36" s="21">
+        <v>0</v>
+      </c>
+      <c r="K36" s="21">
+        <v>0</v>
+      </c>
+      <c r="L36" s="21">
+        <v>0</v>
+      </c>
+      <c r="M36" s="21">
+        <v>0</v>
+      </c>
+      <c r="N36" s="21">
+        <v>0</v>
+      </c>
+      <c r="O36" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P36" s="25">
+      <c r="P36" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="28">
+      <c r="Q36" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R36" s="28">
+      <c r="R36" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S36" s="28">
+      <c r="S36" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T36" s="30"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="33"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="32"/>
     </row>
     <row r="37" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A37" s="11">
+      <c r="A37" s="10">
         <v>35</v>
       </c>
       <c r="B37" s="51"/>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="19">
-        <v>0</v>
-      </c>
-      <c r="E37" s="19">
-        <v>0</v>
-      </c>
-      <c r="F37" s="19">
-        <v>0</v>
-      </c>
-      <c r="G37" s="19">
-        <v>0</v>
-      </c>
-      <c r="H37" s="19">
-        <v>0</v>
-      </c>
-      <c r="I37" s="20">
+      <c r="D37" s="18">
+        <v>0</v>
+      </c>
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+      <c r="F37" s="18">
+        <v>0</v>
+      </c>
+      <c r="G37" s="18">
+        <v>0</v>
+      </c>
+      <c r="H37" s="18">
+        <v>0</v>
+      </c>
+      <c r="I37" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="22">
-        <v>0</v>
-      </c>
-      <c r="K37" s="22">
-        <v>0</v>
-      </c>
-      <c r="L37" s="22">
-        <v>0</v>
-      </c>
-      <c r="M37" s="22">
-        <v>0</v>
-      </c>
-      <c r="N37" s="22">
-        <v>0</v>
-      </c>
-      <c r="O37" s="23">
+      <c r="J37" s="21">
+        <v>0</v>
+      </c>
+      <c r="K37" s="21">
+        <v>0</v>
+      </c>
+      <c r="L37" s="21">
+        <v>0</v>
+      </c>
+      <c r="M37" s="21">
+        <v>0</v>
+      </c>
+      <c r="N37" s="21">
+        <v>0</v>
+      </c>
+      <c r="O37" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P37" s="25">
+      <c r="P37" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="28">
+      <c r="Q37" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R37" s="28">
+      <c r="R37" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S37" s="28">
+      <c r="S37" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T37" s="30"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="33"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="30"/>
+      <c r="V37" s="32"/>
     </row>
     <row r="38" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A38" s="11">
+      <c r="A38" s="10">
         <v>36</v>
       </c>
       <c r="B38" s="52"/>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D38" s="19">
-        <v>0</v>
-      </c>
-      <c r="E38" s="19">
-        <v>0</v>
-      </c>
-      <c r="F38" s="19">
-        <v>0</v>
-      </c>
-      <c r="G38" s="19">
-        <v>0</v>
-      </c>
-      <c r="H38" s="19">
-        <v>0</v>
-      </c>
-      <c r="I38" s="20">
+      <c r="D38" s="18">
+        <v>0</v>
+      </c>
+      <c r="E38" s="18">
+        <v>0</v>
+      </c>
+      <c r="F38" s="18">
+        <v>0</v>
+      </c>
+      <c r="G38" s="18">
+        <v>0</v>
+      </c>
+      <c r="H38" s="18">
+        <v>0</v>
+      </c>
+      <c r="I38" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" s="22">
-        <v>0</v>
-      </c>
-      <c r="K38" s="22">
-        <v>0</v>
-      </c>
-      <c r="L38" s="22">
-        <v>0</v>
-      </c>
-      <c r="M38" s="22">
-        <v>0</v>
-      </c>
-      <c r="N38" s="22">
-        <v>0</v>
-      </c>
-      <c r="O38" s="23">
+      <c r="J38" s="21">
+        <v>0</v>
+      </c>
+      <c r="K38" s="21">
+        <v>0</v>
+      </c>
+      <c r="L38" s="21">
+        <v>0</v>
+      </c>
+      <c r="M38" s="21">
+        <v>0</v>
+      </c>
+      <c r="N38" s="21">
+        <v>0</v>
+      </c>
+      <c r="O38" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P38" s="25">
+      <c r="P38" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q38" s="28">
+      <c r="Q38" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R38" s="28">
+      <c r="R38" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S38" s="28">
+      <c r="S38" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T38" s="30"/>
-      <c r="U38" s="30"/>
-      <c r="V38" s="33"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="32"/>
     </row>
     <row r="39" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A39" s="11">
+      <c r="A39" s="10">
         <v>37</v>
       </c>
       <c r="B39" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="19">
-        <v>0</v>
-      </c>
-      <c r="E39" s="19">
-        <v>0</v>
-      </c>
-      <c r="F39" s="19">
-        <v>0</v>
-      </c>
-      <c r="G39" s="19">
-        <v>0</v>
-      </c>
-      <c r="H39" s="19">
-        <v>0</v>
-      </c>
-      <c r="I39" s="20">
+      <c r="D39" s="18">
+        <v>0</v>
+      </c>
+      <c r="E39" s="18">
+        <v>0</v>
+      </c>
+      <c r="F39" s="18">
+        <v>0</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0</v>
+      </c>
+      <c r="I39" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="22">
+      <c r="J39" s="21">
         <v>550</v>
       </c>
-      <c r="K39" s="22">
-        <v>0</v>
-      </c>
-      <c r="L39" s="22">
-        <v>0</v>
-      </c>
-      <c r="M39" s="22">
-        <v>0</v>
-      </c>
-      <c r="N39" s="22">
-        <v>0</v>
-      </c>
-      <c r="O39" s="23">
+      <c r="K39" s="21">
+        <v>0</v>
+      </c>
+      <c r="L39" s="21">
+        <v>0</v>
+      </c>
+      <c r="M39" s="21">
+        <v>0</v>
+      </c>
+      <c r="N39" s="21">
+        <v>0</v>
+      </c>
+      <c r="O39" s="22">
         <f t="shared" si="2"/>
         <v>11000</v>
       </c>
-      <c r="P39" s="25">
+      <c r="P39" s="24">
         <f t="shared" si="3"/>
         <v>11000</v>
       </c>
-      <c r="Q39" s="28">
-        <v>0</v>
-      </c>
-      <c r="R39" s="28">
+      <c r="Q39" s="27">
+        <v>0</v>
+      </c>
+      <c r="R39" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S39" s="28">
+      <c r="S39" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T39" s="30">
+      <c r="T39" s="29">
         <f>T41*0.7</f>
-        <v>461.57999999999993</v>
-      </c>
-      <c r="U39" s="30"/>
-      <c r="V39" s="33"/>
+        <v>467.87999999999994</v>
+      </c>
+      <c r="U39" s="29"/>
+      <c r="V39" s="32"/>
     </row>
     <row r="40" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A40" s="11">
+      <c r="A40" s="10">
         <v>38</v>
       </c>
       <c r="B40" s="54"/>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="19">
-        <v>0</v>
-      </c>
-      <c r="E40" s="19">
-        <v>0</v>
-      </c>
-      <c r="F40" s="19">
-        <v>0</v>
-      </c>
-      <c r="G40" s="19">
-        <v>0</v>
-      </c>
-      <c r="H40" s="19">
-        <v>0</v>
-      </c>
-      <c r="I40" s="20">
+      <c r="D40" s="18">
+        <v>0</v>
+      </c>
+      <c r="E40" s="18">
+        <v>0</v>
+      </c>
+      <c r="F40" s="18">
+        <v>0</v>
+      </c>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0</v>
+      </c>
+      <c r="I40" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J40" s="22">
-        <v>0</v>
-      </c>
-      <c r="K40" s="22">
-        <v>0</v>
-      </c>
-      <c r="L40" s="22">
-        <v>0</v>
-      </c>
-      <c r="M40" s="22">
-        <v>0</v>
-      </c>
-      <c r="N40" s="22">
-        <v>0</v>
-      </c>
-      <c r="O40" s="23">
+      <c r="J40" s="21">
+        <v>0</v>
+      </c>
+      <c r="K40" s="21">
+        <v>0</v>
+      </c>
+      <c r="L40" s="21">
+        <v>0</v>
+      </c>
+      <c r="M40" s="21">
+        <v>0</v>
+      </c>
+      <c r="N40" s="21">
+        <v>0</v>
+      </c>
+      <c r="O40" s="22">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P40" s="25">
+      <c r="P40" s="24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="Q40" s="28">
+      <c r="Q40" s="27">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R40" s="28">
+      <c r="R40" s="27">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="S40" s="28">
+      <c r="S40" s="27">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="T40" s="30">
+      <c r="T40" s="29">
         <f>T41*0.3</f>
-        <v>197.82</v>
-      </c>
-      <c r="U40" s="30"/>
-      <c r="V40" s="21" t="s">
-        <v>68</v>
+        <v>200.51999999999998</v>
+      </c>
+      <c r="U40" s="29"/>
+      <c r="V40" s="20" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
@@ -3842,81 +3859,81 @@
       </c>
       <c r="B41" s="41"/>
       <c r="C41" s="42"/>
-      <c r="D41" s="26">
+      <c r="D41" s="25">
         <f>SUM(D3:D40)</f>
         <v>13</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="26">
         <f>SUM(E3:E40)</f>
         <v>3</v>
       </c>
-      <c r="F41" s="27">
+      <c r="F41" s="26">
         <f>SUM(F3:F40)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="26">
         <f t="shared" ref="G41:H41" si="7">SUM(G3:G40)</f>
         <v>0</v>
       </c>
-      <c r="H41" s="27">
+      <c r="H41" s="26">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I41" s="39">
+      <c r="I41" s="37">
         <f>SUM(I3:I40)</f>
         <v>380</v>
       </c>
-      <c r="J41" s="34">
+      <c r="J41" s="33">
         <f>SUM(J3:J40)</f>
         <v>555</v>
       </c>
-      <c r="K41" s="34">
+      <c r="K41" s="33">
         <f t="shared" ref="K41:N41" si="8">SUM(K3:K40)</f>
         <v>0</v>
       </c>
-      <c r="L41" s="34">
+      <c r="L41" s="33">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="M41" s="34">
+      <c r="M41" s="33">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="N41" s="34">
+      <c r="N41" s="33">
         <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="O41" s="38">
+        <v>36</v>
+      </c>
+      <c r="O41" s="36">
         <f>SUM(O3:O40)</f>
-        <v>21600</v>
-      </c>
-      <c r="P41" s="37">
+        <v>21900</v>
+      </c>
+      <c r="P41" s="35">
         <f>SUM(P3:P40)</f>
-        <v>21980</v>
-      </c>
-      <c r="Q41" s="14">
+        <v>22280</v>
+      </c>
+      <c r="Q41" s="13">
         <f>SUM(Q1:Q39)</f>
-        <v>3180</v>
-      </c>
-      <c r="R41" s="14">
+        <v>3270</v>
+      </c>
+      <c r="R41" s="13">
         <f>SUM(R3:R38)</f>
         <v>57</v>
       </c>
-      <c r="S41" s="14">
+      <c r="S41" s="13">
         <f>SUM(S3:S38)</f>
         <v>57</v>
       </c>
-      <c r="T41" s="13">
+      <c r="T41" s="12">
         <f>P41*0.03</f>
-        <v>659.4</v>
-      </c>
-      <c r="U41" s="12">
+        <v>668.4</v>
+      </c>
+      <c r="U41" s="11">
         <f>SUM(Q41:T41)</f>
-        <v>3953.4</v>
-      </c>
-      <c r="V41" s="35">
+        <v>4052.4</v>
+      </c>
+      <c r="V41" s="34">
         <f>SUM(D41:H41)+SUM(J41:N41)</f>
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="42" spans="1:25" s="3" customFormat="1" ht="30" customHeight="1">
@@ -3945,7 +3962,7 @@
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
-      <c r="V42" s="9"/>
+      <c r="V42" s="8"/>
     </row>
     <row r="43" spans="1:25">
       <c r="A43" s="1"/>

--- a/九月销售汇总及提成/9月份提成表.xlsx
+++ b/九月销售汇总及提成/9月份提成表.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -200,10 +200,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>提成30%</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>总金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -303,6 +299,34 @@
   <si>
     <t>提成总额</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门店单独销售提成30%</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>20元销售数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>40元销售数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60元销售数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>300元销售数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>100元销售数量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1192,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1224,7 +1248,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="27" customHeight="1">
       <c r="A1" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="45"/>
       <c r="C1" s="46"/>
@@ -1269,34 +1293,34 @@
         <v>18</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N2" s="7" t="s">
-        <v>63</v>
-      </c>
       <c r="O2" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P2" s="39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="7" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>43</v>
@@ -1308,10 +1332,10 @@
         <v>15</v>
       </c>
       <c r="U2" s="38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V2" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
@@ -1319,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9">
         <v>101</v>
@@ -1581,7 +1605,7 @@
       <c r="V6" s="32"/>
       <c r="W6" s="14"/>
       <c r="X6" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
@@ -1651,7 +1675,7 @@
       <c r="V7" s="32"/>
       <c r="W7" s="15"/>
       <c r="X7" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
@@ -1719,11 +1743,11 @@
       <c r="T8" s="28"/>
       <c r="U8" s="28"/>
       <c r="V8" s="32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="W8" s="16"/>
       <c r="X8" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
@@ -1791,7 +1815,7 @@
       <c r="T9" s="28"/>
       <c r="U9" s="28"/>
       <c r="V9" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
@@ -1859,7 +1883,7 @@
       <c r="T10" s="28"/>
       <c r="U10" s="28"/>
       <c r="V10" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="3" customFormat="1" ht="14.1" customHeight="1">
@@ -2587,7 +2611,7 @@
       <c r="T21" s="29"/>
       <c r="U21" s="28"/>
       <c r="V21" s="32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
@@ -2926,7 +2950,7 @@
       </c>
       <c r="B27" s="51"/>
       <c r="C27" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="18">
         <v>0</v>
@@ -3182,7 +3206,9 @@
       </c>
       <c r="T30" s="29"/>
       <c r="U30" s="28"/>
-      <c r="V30" s="32"/>
+      <c r="V30" s="32" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A31" s="10">
@@ -3248,7 +3274,10 @@
       </c>
       <c r="T31" s="29"/>
       <c r="U31" s="28"/>
-      <c r="V31" s="32"/>
+      <c r="V31" s="32">
+        <f>G41+M41</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:22" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A32" s="10">
@@ -3314,7 +3343,9 @@
       </c>
       <c r="T32" s="29"/>
       <c r="U32" s="28"/>
-      <c r="V32" s="32"/>
+      <c r="V32" s="32" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="33" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A33" s="10">
@@ -3380,7 +3411,10 @@
       </c>
       <c r="T33" s="29"/>
       <c r="U33" s="28"/>
-      <c r="V33" s="32"/>
+      <c r="V33" s="32">
+        <f>H41+N41</f>
+        <v>36</v>
+      </c>
     </row>
     <row r="34" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A34" s="10">
@@ -3446,7 +3480,9 @@
       </c>
       <c r="T34" s="29"/>
       <c r="U34" s="28"/>
-      <c r="V34" s="32"/>
+      <c r="V34" s="32" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="35" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A35" s="10">
@@ -3512,7 +3548,10 @@
       </c>
       <c r="T35" s="29"/>
       <c r="U35" s="28"/>
-      <c r="V35" s="32"/>
+      <c r="V35" s="32">
+        <f>D41+J41</f>
+        <v>18</v>
+      </c>
     </row>
     <row r="36" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A36" s="10">
@@ -3578,7 +3617,9 @@
       </c>
       <c r="T36" s="29"/>
       <c r="U36" s="29"/>
-      <c r="V36" s="32"/>
+      <c r="V36" s="32" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="37" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A37" s="10">
@@ -3586,7 +3627,7 @@
       </c>
       <c r="B37" s="51"/>
       <c r="C37" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D37" s="18">
         <v>0</v>
@@ -3644,7 +3685,9 @@
       </c>
       <c r="T37" s="29"/>
       <c r="U37" s="30"/>
-      <c r="V37" s="32"/>
+      <c r="V37" s="32" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="38" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A38" s="10">
@@ -3652,7 +3695,7 @@
       </c>
       <c r="B38" s="52"/>
       <c r="C38" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D38" s="18">
         <v>0</v>
@@ -3710,14 +3753,16 @@
       </c>
       <c r="T38" s="29"/>
       <c r="U38" s="29"/>
-      <c r="V38" s="32"/>
+      <c r="V38" s="32" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="39" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A39" s="10">
         <v>37</v>
       </c>
       <c r="B39" s="53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>42</v>
@@ -3742,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="21">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="K39" s="21">
         <v>0</v>
@@ -3758,11 +3803,11 @@
       </c>
       <c r="O39" s="22">
         <f t="shared" si="2"/>
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="P39" s="24">
         <f t="shared" si="3"/>
-        <v>11000</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="27">
         <v>0</v>
@@ -3777,10 +3822,13 @@
       </c>
       <c r="T39" s="29">
         <f>T41*0.7</f>
-        <v>467.87999999999994</v>
+        <v>236.87999999999997</v>
       </c>
       <c r="U39" s="29"/>
-      <c r="V39" s="32"/>
+      <c r="V39" s="32">
+        <f>F41+L41</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
       <c r="A40" s="10">
@@ -3788,7 +3836,7 @@
       </c>
       <c r="B40" s="54"/>
       <c r="C40" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D40" s="18">
         <v>0</v>
@@ -3846,11 +3894,11 @@
       </c>
       <c r="T40" s="29">
         <f>T41*0.3</f>
-        <v>200.51999999999998</v>
+        <v>101.52</v>
       </c>
       <c r="U40" s="29"/>
       <c r="V40" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:25" s="3" customFormat="1" ht="14.1" customHeight="1">
@@ -3885,7 +3933,7 @@
       </c>
       <c r="J41" s="33">
         <f>SUM(J3:J40)</f>
-        <v>555</v>
+        <v>5</v>
       </c>
       <c r="K41" s="33">
         <f t="shared" ref="K41:N41" si="8">SUM(K3:K40)</f>
@@ -3905,11 +3953,11 @@
       </c>
       <c r="O41" s="36">
         <f>SUM(O3:O40)</f>
-        <v>21900</v>
+        <v>10900</v>
       </c>
       <c r="P41" s="35">
         <f>SUM(P3:P40)</f>
-        <v>22280</v>
+        <v>11280</v>
       </c>
       <c r="Q41" s="13">
         <f>SUM(Q1:Q39)</f>
@@ -3925,15 +3973,15 @@
       </c>
       <c r="T41" s="12">
         <f>P41*0.03</f>
-        <v>668.4</v>
+        <v>338.4</v>
       </c>
       <c r="U41" s="11">
         <f>SUM(Q41:T41)</f>
-        <v>4052.4</v>
+        <v>3722.4</v>
       </c>
       <c r="V41" s="34">
         <f>SUM(D41:H41)+SUM(J41:N41)</f>
-        <v>607</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:25" s="3" customFormat="1" ht="30" customHeight="1">
@@ -3953,12 +4001,11 @@
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
+      <c r="O42" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P42" s="6"/>
       <c r="Q42" s="6"/>
-      <c r="R42" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
@@ -4025,7 +4072,7 @@
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.6692913385826772" right="0.6692913385826772" top="0.19685039370078741" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="45" fitToWidth="4" orientation="landscape" horizontalDpi="4294967292" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToWidth="4" orientation="landscape" horizontalDpi="4294967292" verticalDpi="200" r:id="rId1"/>
 </worksheet>
 </file>
 
